--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b86588c229cb83e/Documents/Drone/PCB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b86588c229cb83e/Documents/Documents/Drone/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="34" documentId="8_{DAC79D77-B3ED-4BF8-BBA1-B4AE5B7109C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{809F2F85-9E22-4F55-98B7-A6056CBAB9DE}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{06F1B404-6798-46A9-B5EF-C25E389DFB9C}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="14400" windowHeight="8183" xr2:uid="{06F1B404-6798-46A9-B5EF-C25E389DFB9C}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
